--- a/Project1/measure_Prof.xlsx
+++ b/Project1/measure_Prof.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitfolder\WSU_STATS419_FALL2020\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4360F3B5-E1C4-441C-AA59-08E8516A2337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD74B11C-DBCF-4188-93FE-08936236D439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="17390" windowHeight="9040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16370" windowHeight="9040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covariates" sheetId="1" r:id="rId1"/>
     <sheet name="panel" sheetId="2" r:id="rId2"/>
     <sheet name="definitions" sheetId="4" r:id="rId3"/>
-    <sheet name="private" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="58">
   <si>
     <t>data_collector</t>
   </si>
@@ -130,12 +129,6 @@
     <t>possible ancestry may include: scottish, wea native american</t>
   </si>
   <si>
-    <t>MonteS</t>
-  </si>
-  <si>
-    <t>AlexS</t>
-  </si>
-  <si>
     <t>8a4108d8610658f282267a704288398d</t>
   </si>
   <si>
@@ -148,12 +141,6 @@
     <t>head.circumference</t>
   </si>
   <si>
-    <t>VeraZ</t>
-  </si>
-  <si>
-    <t>cf75598f0f03fde004987faae8c94d49</t>
-  </si>
-  <si>
     <t>eye_color</t>
   </si>
   <si>
@@ -167,9 +154,6 @@
   </si>
   <si>
     <t>04343803d489fe8ee2c5f6ab97a101e9</t>
-  </si>
-  <si>
-    <t>monte_shaffer</t>
   </si>
   <si>
     <t>Standing height of the individual, preferably with NO SHOES on</t>
@@ -264,9 +248,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,81 +614,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3">
         <v>47</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4">
-        <v>47</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>10</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>23</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M2" t="s">
@@ -714,41 +697,41 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4">
-        <v>7</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -774,765 +757,765 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>19.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>21.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>225.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>26.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>26.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>43.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>93.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>98.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1544,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A1:A23"/>
     </sheetView>
   </sheetViews>
@@ -1555,210 +1538,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
